--- a/meas/Transceiver_PWR_Consumption_Transil_Meas.xlsx
+++ b/meas/Transceiver_PWR_Consumption_Transil_Meas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Ham_Transceiver_Power_Supply\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Ham_Transceiver_Power_Supply\meas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8679D-7FCF-4892-88C5-A4EB55A20850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC375D-0D43-426C-ABBB-E99623D01F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{622AC5F5-238E-40CA-AED6-803544F65560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{622AC5F5-238E-40CA-AED6-803544F65560}"/>
   </bookViews>
   <sheets>
     <sheet name="Anytone Power Consumption" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -279,12 +279,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,7 +294,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC044C4-E527-4B50-848E-5278C0B003F3}">
   <dimension ref="D4:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -1478,34 +1478,34 @@
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1627,7 +1627,7 @@
       <c r="D20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="8" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="8" t="s">
         <v>12</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="D23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="8">
         <v>438.57499999999999</v>
       </c>
@@ -1662,34 +1662,34 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AC4BD7-51D0-4DF5-97DD-8C24537D6BC0}">
   <dimension ref="B3:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,15 +1982,15 @@
         <v>0</v>
       </c>
       <c r="F26" s="5">
-        <f>(E26/$D$22)</f>
+        <f t="shared" ref="F26:F44" si="0">(E26/$D$22)</f>
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:G43" si="0">E26*F26</f>
+        <f t="shared" ref="G26:G43" si="1">E26*F26</f>
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ref="H26:H43" si="1">D26*F26</f>
+        <f t="shared" ref="H26:H43" si="2">D26*F26</f>
         <v>0</v>
       </c>
     </row>
@@ -2002,19 +2002,19 @@
         <v>5.07</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:E44" si="2">C27-D27</f>
+        <f t="shared" ref="E27:E44" si="3">C27-D27</f>
         <v>0</v>
       </c>
       <c r="F27" s="5">
-        <f>(E27/$D$22)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" t="s">
@@ -2032,19 +2032,19 @@
         <v>5.98</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" s="5">
-        <f>(E28/$D$22)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N28" t="s">
@@ -2059,19 +2059,19 @@
         <v>6.46</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F29" s="5">
-        <f>(E29/$D$22)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N29" t="s">
@@ -2086,19 +2086,19 @@
         <v>7</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F30" s="5">
-        <f>(E30/$D$22)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" t="s">
@@ -2116,19 +2116,19 @@
         <v>7.43</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000462E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0606060606062005E-4</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2121212121212681E-5</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="2"/>
-        <v>2.0000000000000462E-2</v>
-      </c>
-      <c r="F31" s="5">
-        <f>(E31/$D$22)</f>
-        <v>6.0606060606062005E-4</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2121212121212681E-5</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="1"/>
         <v>4.5030303030304071E-3</v>
       </c>
       <c r="N31" t="s">
@@ -2143,19 +2143,19 @@
         <v>7.62</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2121212121212132E-3</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="1"/>
+        <v>4.8484848484848569E-5</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="F32" s="5">
-        <f>(E32/$D$22)</f>
-        <v>1.2121212121212132E-3</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>4.8484848484848569E-5</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="1"/>
         <v>9.236363636363645E-3</v>
       </c>
       <c r="N32" t="s">
@@ -2170,19 +2170,19 @@
         <v>7.76</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000013E-3</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="2"/>
-        <v>0.33000000000000007</v>
-      </c>
-      <c r="F33" s="5">
-        <f>(E33/$D$22)</f>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000013E-3</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="1"/>
         <v>7.7600000000000016E-2</v>
       </c>
       <c r="L33" t="s">
@@ -2200,19 +2200,19 @@
         <v>7.85</v>
       </c>
       <c r="E34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0700000000000003</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2424242424242432E-2</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4693939393939409E-2</v>
+      </c>
+      <c r="H34" s="5">
         <f t="shared" si="2"/>
-        <v>1.0700000000000003</v>
-      </c>
-      <c r="F34" s="5">
-        <f>(E34/$D$22)</f>
-        <v>3.2424242424242432E-2</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4693939393939409E-2</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="1"/>
         <v>0.25453030303030305</v>
       </c>
     </row>
@@ -2224,19 +2224,19 @@
         <v>7.92</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="1"/>
+        <v>8.2500000000000032E-2</v>
+      </c>
+      <c r="H35" s="5">
         <f t="shared" si="2"/>
-        <v>1.6500000000000004</v>
-      </c>
-      <c r="F35" s="5">
-        <f>(E35/$D$22)</f>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>8.2500000000000032E-2</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="1"/>
         <v>0.39600000000000007</v>
       </c>
     </row>
@@ -2248,19 +2248,19 @@
         <v>7.93</v>
       </c>
       <c r="E36" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4545454545454564E-2</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="1"/>
+        <v>9.8181818181818259E-2</v>
+      </c>
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="F36" s="5">
-        <f>(E36/$D$22)</f>
-        <v>5.4545454545454564E-2</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>9.8181818181818259E-2</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="1"/>
         <v>0.43254545454545468</v>
       </c>
     </row>
@@ -2272,19 +2272,19 @@
         <v>7.98</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3699999999999992</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1818181818181795E-2</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17020909090909081</v>
+      </c>
+      <c r="H37" s="5">
         <f t="shared" si="2"/>
-        <v>2.3699999999999992</v>
-      </c>
-      <c r="F37" s="5">
-        <f>(E37/$D$22)</f>
-        <v>7.1818181818181795E-2</v>
-      </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17020909090909081</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="1"/>
         <v>0.57310909090909079</v>
       </c>
     </row>
@@ -2296,19 +2296,19 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4599999999999991</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10484848484848482</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36277575757575736</v>
+      </c>
+      <c r="H38" s="5">
         <f t="shared" si="2"/>
-        <v>3.4599999999999991</v>
-      </c>
-      <c r="F38" s="5">
-        <f>(E38/$D$22)</f>
-        <v>0.10484848484848482</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.36277575757575736</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="1"/>
         <v>0.8440303030303028</v>
       </c>
     </row>
@@ -2324,15 +2324,15 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="F39" s="5">
-        <f>(E39/$D$22)</f>
+        <f t="shared" si="0"/>
         <v>0.11818181818181819</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46090909090909099</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95609090909090921</v>
       </c>
     </row>
@@ -2348,15 +2348,15 @@
         <v>4.25</v>
       </c>
       <c r="F40" s="5">
-        <f>(E40/$D$22)</f>
+        <f t="shared" si="0"/>
         <v>0.12878787878787878</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54734848484848486</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0457575757575757</v>
       </c>
     </row>
@@ -2368,19 +2368,19 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" si="3"/>
+        <v>4.68</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14181818181818182</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.6637090909090908</v>
+      </c>
+      <c r="H41" s="5">
         <f t="shared" si="2"/>
-        <v>4.68</v>
-      </c>
-      <c r="F41" s="5">
-        <f>(E41/$D$22)</f>
-        <v>0.14181818181818182</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="0"/>
-        <v>0.6637090909090908</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="1"/>
         <v>1.1529818181818183</v>
       </c>
     </row>
@@ -2392,19 +2392,19 @@
         <v>8.11</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" si="3"/>
+        <v>4.17</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12636363636363637</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="1"/>
+        <v>0.52693636363636365</v>
+      </c>
+      <c r="H42" s="5">
         <f t="shared" si="2"/>
-        <v>4.17</v>
-      </c>
-      <c r="F42" s="5">
-        <f>(E42/$D$22)</f>
-        <v>0.12636363636363637</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="0"/>
-        <v>0.52693636363636365</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="1"/>
         <v>1.024809090909091</v>
       </c>
     </row>
@@ -2416,19 +2416,19 @@
         <v>8.19</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18787878787878792</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1648484848484852</v>
+      </c>
+      <c r="H43" s="5">
         <f t="shared" si="2"/>
-        <v>6.2000000000000011</v>
-      </c>
-      <c r="F43" s="5">
-        <f>(E43/$D$22)</f>
-        <v>0.18787878787878792</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1648484848484852</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="1"/>
         <v>1.5387272727272729</v>
       </c>
     </row>
@@ -2440,11 +2440,11 @@
         <v>8.14</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8499999999999996</v>
       </c>
       <c r="F44" s="5">
-        <f>(E44/$D$22)</f>
+        <f t="shared" si="0"/>
         <v>0.14696969696969697</v>
       </c>
       <c r="G44" s="5">
